--- a/test data/OLogNPolar.xlsx
+++ b/test data/OLogNPolar.xlsx
@@ -11,13 +11,12 @@
     <sheet name="List2" sheetId="2" r:id="rId2"/>
     <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>10 hran</t>
   </si>
@@ -32,6 +31,9 @@
   </si>
   <si>
     <t>1000000 hran</t>
+  </si>
+  <si>
+    <t>100000 hran</t>
   </si>
 </sst>
 </file>
@@ -829,7 +831,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000000 hran</c:v>
+                  <c:v>100000 hran</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1186,11 +1188,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="103770368"/>
-        <c:axId val="103797120"/>
+        <c:axId val="109608320"/>
+        <c:axId val="109635456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103770368"/>
+        <c:axId val="109608320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1218,12 +1220,12 @@
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103797120"/>
+        <c:crossAx val="109635456"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103797120"/>
+        <c:axId val="109635456"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1241,7 +1243,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="cs-CZ"/>
-                  <a:t>Čas [t]</a:t>
+                  <a:t>Čas [ms]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1250,7 +1252,7 @@
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103770368"/>
+        <c:crossAx val="109608320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1266,7 +1268,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2400,20 +2402,43 @@
           </c:val>
         </c:ser>
         <c:bandFmts/>
-        <c:axId val="105652992"/>
-        <c:axId val="105654528"/>
-        <c:axId val="105638080"/>
+        <c:axId val="110140416"/>
+        <c:axId val="110154880"/>
+        <c:axId val="110135488"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="105652992"/>
+        <c:axId val="110140416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Počet</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="0"/>
+                  <a:t> testovaných bodů</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105654528"/>
+        <c:crossAx val="110154880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2422,29 +2447,79 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105654528"/>
+        <c:axId val="110154880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Čas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>[ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105652992"/>
+        <c:crossAx val="110140416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="105638080"/>
+        <c:axId val="110135488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Počet</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="0"/>
+                  <a:t> hran polygonu</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105654528"/>
+        <c:crossAx val="110154880"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
       </c:serAx>
@@ -2467,7 +2542,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2825,7 +2900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F18" workbookViewId="0">
       <selection activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
@@ -3798,7 +3873,7 @@
         <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P27" t="s">
         <v>4</v>
